--- a/data/income_statement/1digit/size/E_IS_LARGE.xlsx
+++ b/data/income_statement/1digit/size/E_IS_LARGE.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>E-Water supply; sewerage; waste management and remediation activities</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>E-Water supply; sewerage; waste management and remediation activities</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,299 +841,339 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>1672657.34287</v>
+        <v>1605689.73676</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>2145637.5159</v>
+        <v>2127844.75777</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>3528176.80102</v>
+        <v>3484535.56564</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>4267490.54192</v>
+        <v>4158714.00902</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>4276224.78956</v>
+        <v>4186184.01155</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>5025986.61014</v>
+        <v>4924955.6232</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>5524874.68166</v>
+        <v>5421926.385880001</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>6177759.221759999</v>
+        <v>5974092.09691</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>8774493.286400001</v>
+        <v>8324981.70017</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>6488846.97318</v>
+        <v>5959753.90025</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>6959549.93629</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>5715065.451330001</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>7708436.15</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>1616936.06642</v>
+        <v>1555026.43039</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>2116698.3666</v>
+        <v>2099216.59178</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>3460270.56445</v>
+        <v>3418366.26976</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>4169521.97547</v>
+        <v>4067247.961190001</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>4229903.902139999</v>
+        <v>4151093.57377</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>4959991.25089</v>
+        <v>4865248.87182</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>5226955.33035</v>
+        <v>5131937.70169</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>6049663.05068</v>
+        <v>5860708.026319999</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>8619207.716240002</v>
+        <v>8224401.084710001</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>6333090.813039999</v>
+        <v>5880770.33636</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>6236556.98866</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>5058524.38402</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>7069800.406</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>36279.58082</v>
+        <v>32885.539</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>10074.1811</v>
+        <v>9972.8537</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>48348.26161</v>
+        <v>47934.10635</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>41863.85262</v>
+        <v>40773.67113</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>20207.66299</v>
+        <v>19435.41852</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>12411.98622</v>
+        <v>12358.04222</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>9450.523439999999</v>
+        <v>8329.092629999999</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>35965.11287</v>
+        <v>35241.27404</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>30876.50651000001</v>
+        <v>28687.79246</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>56533.60738</v>
+        <v>56227.04164</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>608359.7445199999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>600931.4952500002</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>584661.535</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>19441.69563</v>
+        <v>17777.76737</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>18864.9682</v>
+        <v>18655.31229</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>19557.97496</v>
+        <v>18235.18953</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>56104.71383000001</v>
+        <v>50692.3767</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>26113.22443</v>
+        <v>15655.01926</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>53583.37303</v>
+        <v>47348.70916000001</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>288468.82787</v>
+        <v>281659.59156</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>92131.05820999999</v>
+        <v>78142.79655</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>124409.06365</v>
+        <v>71892.823</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>99222.55275999999</v>
+        <v>22756.52225</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>114633.20311</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>55609.57206000001</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>53974.209</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>7291.37559</v>
+        <v>2165.44715</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>9822.39436</v>
+        <v>9765.505570000001</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>12275.37207</v>
+        <v>12203.11157</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>19170.07439</v>
+        <v>18178.43581</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>17306.83446</v>
+        <v>8201.892469999999</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>29060.16507</v>
+        <v>17955.43777</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>28874.75067</v>
+        <v>27789.90181</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>266304.10785</v>
+        <v>263786.8663</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>30274.8746</v>
+        <v>22083.04355</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>58636.41913</v>
+        <v>54697.25607</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>81659.80190000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>74529.80222</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>48716.894</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>1098.29403</v>
+        <v>946.54354</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>1600.85347</v>
+        <v>1544.04192</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>6093.52887</v>
+        <v>6057.43455</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>13031.7233</v>
+        <v>12180.47256</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>12427.1758</v>
+        <v>3470.60469</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>17335.60017</v>
+        <v>6576.32827</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>11336.71275</v>
+        <v>10296.66323</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>250657.9225</v>
+        <v>248575.12077</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>18289.60246</v>
+        <v>12371.36139</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>50638.9199</v>
+        <v>47499.31023</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>50225.99808</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>43952.61973999999</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>25161.132</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>5932.50723</v>
+        <v>1141.05372</v>
       </c>
       <c r="D11" s="48" t="n">
         <v>6537.98898</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>5363.66318</v>
+        <v>5329.42101</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>5707.77937</v>
+        <v>5586.50666</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>3634.70283</v>
+        <v>3486.33195</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>6283.723899999999</v>
+        <v>5938.2685</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>11531.46291</v>
+        <v>11496.4483</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>7528.65688</v>
+        <v>7427.92961</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>3902.40022</v>
+        <v>1738.98525</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>1627.34589</v>
+        <v>866.8455</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>945.8235900000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>89.20225000000001</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>2352.503</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
-        <v>260.57433</v>
+        <v>77.84989</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>1683.55191</v>
+        <v>1683.47467</v>
       </c>
       <c r="E12" s="48" t="n">
-        <v>818.18002</v>
+        <v>816.2560100000001</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>430.57172</v>
+        <v>411.4565899999999</v>
       </c>
       <c r="G12" s="48" t="n">
         <v>1244.95583</v>
@@ -1241,220 +1182,250 @@
         <v>5440.841</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>6006.57501</v>
+        <v>5996.79028</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>8117.528470000001</v>
+        <v>7783.81592</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>8082.87192</v>
+        <v>7972.696910000001</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>6370.15334</v>
+        <v>6331.10034</v>
       </c>
       <c r="M12" s="48" t="n">
         <v>30487.98023</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12" s="48" t="n">
+        <v>21203.259</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>1665365.96728</v>
+        <v>1603524.28961</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>2135815.12154</v>
+        <v>2118079.2522</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>3515901.42895</v>
+        <v>3472332.45407</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>4248320.46753</v>
+        <v>4140535.57321</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>4258917.955100001</v>
+        <v>4177982.11908</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>4996926.445069999</v>
+        <v>4907000.185430001</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>5495999.930989999</v>
+        <v>5394136.484069999</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>5911455.11391</v>
+        <v>5710305.230610001</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>8744218.411800001</v>
+        <v>8302898.656619999</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>6430210.554049999</v>
+        <v>5905056.644179999</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>6877890.134389999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>5640535.649110001</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>7659719.256</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>1396902.28385</v>
+        <v>1355221.90066</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>1809218.69732</v>
+        <v>1793513.93011</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>3055752.14974</v>
+        <v>3024794.1714</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>3703144.50542</v>
+        <v>3614571.45115</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>3780824.826520001</v>
+        <v>3714412.84756</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>4596299.91201</v>
+        <v>4529122.14795</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>5028483.21927</v>
+        <v>4975346.454310001</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>5434407.31226</v>
+        <v>5297856.5288</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>7946005.598060001</v>
+        <v>7622517.12187</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>5515148.079609999</v>
+        <v>5091469.30806</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>5996362.71609</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>4940829.50599</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>6566189.393</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>58990.6828</v>
+        <v>41087.81846</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>58223.4136</v>
+        <v>48365.21686</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>165523.65925</v>
+        <v>159220.89598</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>267669.2100899999</v>
+        <v>232275.24573</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>520427.76843</v>
+        <v>487105.78633</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>577744.45864</v>
+        <v>528762.26232</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>691251.2956900001</v>
+        <v>654433.6801900001</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>800374.10626</v>
+        <v>746934.57676</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>862647.9753099999</v>
+        <v>803057.6986500002</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>841430.1976</v>
+        <v>573695.58604</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>1404446.05438</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>944598.6535599999</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>2340658.831</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>326707.44049</v>
+        <v>320962.55686</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>525326.62648</v>
+        <v>524949.2741200001</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>1331085.52231</v>
+        <v>1330615.07041</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>1541736.56542</v>
+        <v>1525544.19154</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>1378752.75758</v>
+        <v>1330144.18005</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>1889965.1989</v>
+        <v>1889708.94154</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>1463255.37481</v>
+        <v>1454864.17415</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>1245673.42041</v>
+        <v>1242048.85996</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>2865185.8693</v>
+        <v>2766669.0243</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>1809252.17609</v>
+        <v>1802225.48939</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>1544338.31324</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>1528605.15182</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>1551824.748</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>999471.85989</v>
+        <v>981439.2246699999</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>1222274.22826</v>
+        <v>1216805.01015</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>1558038.87898</v>
+        <v>1533867.89175</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>1893573.27827</v>
+        <v>1856586.56224</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>1878984.16307</v>
+        <v>1895632.77146</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>2111623.69822</v>
+        <v>2093868.72949</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>2862557.10114</v>
+        <v>2854660.41015</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>3363097.21095</v>
+        <v>3283614.79906</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>4189363.20988</v>
+        <v>4038272.031419999</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>2843610.47806</v>
+        <v>2711610.85297</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>3032231.75023</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>2464703.11361</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>2504628.444</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>11732.30067</v>
@@ -1463,115 +1434,130 @@
         <v>3394.42898</v>
       </c>
       <c r="E18" s="48" t="n">
-        <v>1104.0892</v>
+        <v>1090.31326</v>
       </c>
       <c r="F18" s="48" t="n">
         <v>165.45164</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>2660.13744</v>
+        <v>1530.10972</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>16966.55625</v>
+        <v>16782.2146</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>11419.44763</v>
+        <v>11388.18982</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>25262.57464</v>
+        <v>25258.29302</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>28808.54357</v>
+        <v>14518.3675</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>20855.22786</v>
+        <v>3937.37966</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>15346.59824</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>2922.587</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>169077.37</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>268463.68343</v>
+        <v>248302.38895</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>326596.42422</v>
+        <v>324565.32209</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>460149.2792100001</v>
+        <v>447538.28267</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>545175.96211</v>
+        <v>525964.1220600001</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>478093.12858</v>
+        <v>463569.27152</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>400626.53306</v>
+        <v>377878.03748</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>467516.71172</v>
+        <v>418790.02976</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>477047.80165</v>
+        <v>412448.70181</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>798212.8137399999</v>
+        <v>680381.53475</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>915062.47444</v>
+        <v>813587.33612</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>881527.4182999999</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>699706.14312</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>1093529.863</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>131105.17382</v>
+        <v>122594.44994</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>163026.68205</v>
+        <v>157410.51223</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>215007.77919</v>
+        <v>198005.73511</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>259511.07483</v>
+        <v>221789.47311</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>261994.5562</v>
+        <v>233630.9046</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>288775.35128</v>
+        <v>271548.48853</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>307595.64444</v>
+        <v>283895.78243</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>352265.0516899999</v>
+        <v>308262.95653</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>416188.7868599999</v>
+        <v>347777.79802</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>377964.35752</v>
+        <v>304387.89722</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>426568.72403</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>322532.18241</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>374688.612</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>0</v>
@@ -1583,7 +1569,7 @@
         <v>109.61511</v>
       </c>
       <c r="F21" s="48" t="n">
-        <v>2380.85241</v>
+        <v>209.87878</v>
       </c>
       <c r="G21" s="48" t="n">
         <v>138.73724</v>
@@ -1604,178 +1590,203 @@
         <v>316.84086</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>3202.6965</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>205.99991</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>1555.559</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>17280.2618</v>
+        <v>13624.81699</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>23551.3747</v>
+        <v>22730.20402</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>34610.50713000001</v>
+        <v>32971.72964</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>46546.49623</v>
+        <v>41613.21231999999</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>43222.35656</v>
+        <v>41483.38293</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>26824.35095</v>
+        <v>25354.78318</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>30552.76736</v>
+        <v>27043.20731</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>28871.51828</v>
+        <v>25788.66109</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>47969.79359</v>
+        <v>43387.67043999999</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>44423.92309999999</v>
+        <v>38599.45243</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>61036.27926</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>48319.18441</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>56693.812</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>113824.91202</v>
+        <v>108969.63295</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>139327.13288</v>
+        <v>134532.13374</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>180287.65695</v>
+        <v>164924.39036</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>210583.72619</v>
+        <v>179966.38201</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>218633.4624</v>
+        <v>192008.78443</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>261576.87509</v>
+        <v>245819.58011</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>276774.0894</v>
+        <v>256583.78744</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>323372.611</v>
+        <v>282453.37303</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>367987.5261</v>
+        <v>304158.66041</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>333223.59356</v>
+        <v>265471.60393</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>362329.74827</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>274006.99809</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>316439.241</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>137358.50961</v>
+        <v>125707.93901</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>163569.74217</v>
+        <v>167154.80986</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>245141.50002</v>
+        <v>249532.54756</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>285664.88728</v>
+        <v>304174.6489500001</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>216098.57238</v>
+        <v>229938.36692</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>111851.18178</v>
+        <v>106329.54895</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>159921.06728</v>
+        <v>134894.24733</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>124782.74996</v>
+        <v>104185.74528</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>382024.02688</v>
+        <v>332603.73673</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>537098.1169199999</v>
+        <v>509199.4389</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>454958.69427</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>377173.96071</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>718841.251</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>69343.14968999999</v>
+        <v>60218.41888</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>56389.80577</v>
+        <v>51201.23546</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>68849.38364</v>
+        <v>63980.38503</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>89054.0292</v>
+        <v>68673.61154</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>119565.69542</v>
+        <v>89172.01978999999</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>147772.90814</v>
+        <v>103446.40173</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>266011.74507</v>
+        <v>209237.39387</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>251489.79591</v>
+        <v>195853.07979</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>361273.51901</v>
+        <v>241433.25856</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>632091.6255399999</v>
+        <v>355382.88602</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>603431.46875</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>487831.71759</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>1362361.079</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
-        <v>1897.75052</v>
+        <v>1849.43796</v>
       </c>
       <c r="D26" s="48" t="n">
         <v>47.3583</v>
       </c>
       <c r="E26" s="48" t="n">
-        <v>11249.21092</v>
+        <v>11244.33338</v>
       </c>
       <c r="F26" s="48" t="n">
         <v>5643.86755</v>
@@ -1787,25 +1798,30 @@
         <v>10389.46096</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>20047.78912</v>
+        <v>13075.51364</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>23439.81464</v>
+        <v>10860.96838</v>
       </c>
       <c r="K26" s="48" t="n">
         <v>18847.94463</v>
       </c>
       <c r="L26" s="48" t="n">
-        <v>20091.05262</v>
+        <v>12432.79544</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>22042.08648</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>4.340689999999999</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>181.816</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>0</v>
@@ -1817,7 +1833,7 @@
         <v>1207.68613</v>
       </c>
       <c r="F27" s="48" t="n">
-        <v>9122.47832</v>
+        <v>4457.87274</v>
       </c>
       <c r="G27" s="48" t="n">
         <v>5987.10167</v>
@@ -1832,58 +1848,68 @@
         <v>1097.71016</v>
       </c>
       <c r="K27" s="48" t="n">
-        <v>36014.77332</v>
+        <v>3927.72755</v>
       </c>
       <c r="L27" s="48" t="n">
-        <v>58835.20899</v>
+        <v>750</v>
       </c>
       <c r="M27" s="48" t="n">
-        <v>2924.74632</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>0.58123</v>
+      </c>
+      <c r="N27" s="48" t="n">
+        <v>5594.276</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>13339.86728</v>
+        <v>11782.26551</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>9087.318070000001</v>
+        <v>9020.10347</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>9306.176670000001</v>
+        <v>8209.1036</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>17389.40819</v>
+        <v>9891.68909</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>18331.12991</v>
+        <v>8162.956</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>24458.17399</v>
+        <v>16692.01197</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>47409.26093</v>
+        <v>40341.91911</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>63081.5779</v>
+        <v>47605.77896</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>80227.71191</v>
+        <v>62334.76126</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>64425.31431</v>
+        <v>27399.23932</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>40284.80974</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>13866.05679</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>43725.524</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>0</v>
@@ -1916,52 +1942,62 @@
         <v>44.9225</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>193.509</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>3037.496</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
-        <v>3193.71368</v>
+        <v>3172.7073</v>
       </c>
       <c r="D30" s="48" t="n">
         <v>9495.489029999999</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>6845.303099999999</v>
+        <v>6790.02328</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>6099.812339999999</v>
+        <v>6052.70482</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>9313.95175</v>
+        <v>9276.49646</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>12661.00994</v>
+        <v>5931.37411</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>15518.74279</v>
+        <v>8713.373949999999</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>6352.7019</v>
+        <v>6198.30663</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>1108.1476</v>
+        <v>1020.05943</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>1026.55634</v>
+        <v>327.61028</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>1527.76122</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>1330.12495</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>167.361</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
         <v>254.27123</v>
@@ -1979,67 +2015,77 @@
         <v>1366.18415</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>841.93633</v>
+        <v>841.8308900000001</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>50.83208</v>
+        <v>38.95426</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>1718.51438</v>
+        <v>1717.08069</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>707.06282</v>
+        <v>705.1591699999999</v>
       </c>
       <c r="L31" s="48" t="n">
         <v>0</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>601.74879</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>745.396</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>42543.39283</v>
+        <v>35045.59272</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>29412.47334</v>
+        <v>24319.91177</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>27139.60285</v>
+        <v>23791.2006</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>29816.92904</v>
+        <v>21965.11248</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>63300.28914</v>
+        <v>42464.2835</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>62576.35145</v>
+        <v>40059.14164</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>131123.8441</v>
+        <v>101859.67414</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>127875.85643</v>
+        <v>100702.84103</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>178497.99199</v>
+        <v>111969.905</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>445655.14205</v>
+        <v>277554.94634</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>490682.76073</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>433639.8546</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>1187434.283</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>0</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>0.383</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>0</v>
@@ -2113,92 +2164,107 @@
       <c r="M34" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>8114.15415</v>
+        <v>8114.14416</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>8194.53724</v>
+        <v>8165.743100000001</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>12484.88987</v>
+        <v>12121.52394</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>20387.688</v>
+        <v>20068.5191</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>16474.30383</v>
+        <v>17122.26304</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>30630.9534</v>
+        <v>23317.56009</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>47945.60708999999</v>
+        <v>41292.28981</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>27860.71602</v>
+        <v>27607.48946</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>45457.30949</v>
+        <v>42215.12426999999</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>42012.33654</v>
+        <v>36872.27995</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>45174.04647</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>38990.75933</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>121474.544</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>48468.86251</v>
+        <v>41157.32416</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>33303.95639</v>
+        <v>29083.61688</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>64957.81378</v>
+        <v>55459.37693999999</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>57290.56445999999</v>
+        <v>51918.71889</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>88881.23014</v>
+        <v>39771.75847</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>158330.57423</v>
+        <v>120022.08152</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>181074.45932</v>
+        <v>151882.59207</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>177698.83548</v>
+        <v>137615.19051</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>255089.20997</v>
+        <v>143839.81381</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>561013.5832100001</v>
+        <v>308562.48825</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>547416.63643</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>466077.02768</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>1247118.73</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>184.55755</v>
+        <v>43.29743</v>
       </c>
       <c r="D37" s="48" t="n">
         <v>40.39126</v>
@@ -2216,7 +2282,7 @@
         <v>79.45325</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>30.36578</v>
+        <v>30.36268</v>
       </c>
       <c r="J37" s="48" t="n">
         <v>5.29878</v>
@@ -2228,52 +2294,62 @@
         <v>83.06918</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>187.97894</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>38.15014</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>651.938</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>7755.974310000001</v>
+        <v>7526.09114</v>
       </c>
       <c r="D38" s="48" t="n">
         <v>8474.628530000002</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>17137.10133</v>
+        <v>17032.82109</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>20273.59057</v>
+        <v>20098.58132</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>2464.48774</v>
+        <v>2247.36522</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>69687.53909999999</v>
+        <v>55375.0267</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>17429.97014</v>
+        <v>17399.03682</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>19948.91201</v>
+        <v>7476.17476</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>26343.17214</v>
+        <v>3190.31501</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>16879.87371</v>
+        <v>15870.03426</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>7765.04542</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>6938.631659999999</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>1409.716</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>0</v>
@@ -2303,55 +2379,65 @@
         <v>0.14144</v>
       </c>
       <c r="L39" s="48" t="n">
-        <v>10453.47</v>
+        <v>0</v>
       </c>
       <c r="M39" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>34190.64498</v>
+        <v>27250.24992000001</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>21967.18143</v>
+        <v>17747.11373</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>33503.14525</v>
+        <v>24109.11624</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>32582.80809</v>
+        <v>27440.05102</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>80485.27614</v>
+        <v>32375.44258</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>66942.07335999999</v>
+        <v>45326.25625</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>149307.43157</v>
+        <v>121194.82763</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>148366.5792</v>
+        <v>120843.15379</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>206933.76265</v>
+        <v>126351.28587</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>524629.30224</v>
+        <v>284123.8127</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>511872.54125</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>432013.31241</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>1206938.036</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>311.91124</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>0.38283</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>0</v>
@@ -2425,248 +2516,283 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
         <v>6025.774429999999</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>2364.36717</v>
+        <v>2364.09536</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>14185.87331</v>
+        <v>14185.74572</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>4302.94648</v>
+        <v>4248.86723</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>5129.37394</v>
+        <v>4346.85835</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>21113.09462</v>
+        <v>18732.93142</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>14302.70584</v>
+        <v>13254.37895</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>9361.852069999999</v>
+        <v>9274.36976</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>21806.78884</v>
+        <v>14292.72659</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>8967.86808</v>
+        <v>8485.572109999999</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>27590.68799</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>27086.55064</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>38119.04</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>57224.01744</v>
+        <v>52779.42584</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>52773.73773</v>
+        <v>50476.70228</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>49319.11079999999</v>
+        <v>41609.60752</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>72794.14819999998</v>
+        <v>49625.07565</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>76667.43343</v>
+        <v>53473.18573</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>105738.53477</v>
+        <v>101190.51988</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>164337.38873</v>
+        <v>155113.25499</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>200693.14509</v>
+        <v>189467.92012</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>272410.89884</v>
+        <v>230821.65854</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>340202.4542100001</v>
+        <v>222086.46215</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>239788.07384</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>178978.0104</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>234493.721</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>46900.14357</v>
+        <v>45968.02187</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>40328.57573</v>
+        <v>38031.54028</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>42187.955</v>
+        <v>34478.45172</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>67747.69403999999</v>
+        <v>44578.62149</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>56667.62302000001</v>
+        <v>48546.68451000001</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>93576.23603999999</v>
+        <v>90904.80901</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>142741.61625</v>
+        <v>134638.87033</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>169150.47458</v>
+        <v>159243.62238</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>241221.56686</v>
+        <v>217529.5161</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>281667.51193</v>
+        <v>215198.24987</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>219268.04004</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>178976.36113</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>227651.671</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>10323.87387</v>
+        <v>6811.403969999999</v>
       </c>
       <c r="D46" s="48" t="n">
         <v>12445.162</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>7131.155799999999</v>
+        <v>7131.1558</v>
       </c>
       <c r="F46" s="48" t="n">
         <v>5046.45416</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>19999.81041</v>
+        <v>4926.50122</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>12162.29873</v>
+        <v>10285.71087</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>21595.77248</v>
+        <v>20474.38466</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>31542.67051</v>
+        <v>30224.29774</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>31189.33198</v>
+        <v>13292.14244</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>58534.94228</v>
+        <v>6888.212280000001</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>20520.0338</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>1.64927</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>6842.05</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>101008.77935</v>
+        <v>91989.60789000001</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>133881.85382</v>
+        <v>138795.72616</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>199713.95908</v>
+        <v>216443.94813</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>244634.20382</v>
+        <v>271304.46595</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>170115.60423</v>
+        <v>225865.44251</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>-4445.019080000005</v>
+        <v>-11436.65072</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>80520.96429999999</v>
+        <v>37135.79414</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>-2119.434699999996</v>
+        <v>-27044.28556</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>215797.43708</v>
+        <v>199375.52294</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>267973.70504</v>
+        <v>333933.37452</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>271185.45275</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>219950.64022</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>599589.879</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>17926.39225</v>
+        <v>16361.47332</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>32818.1533</v>
+        <v>30059.28424</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>34776.41245</v>
+        <v>32687.00604</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>27875.0991</v>
+        <v>25659.90733</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>25421.47893</v>
+        <v>51404.50418</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>49140.1767</v>
+        <v>57908.99955</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>44818.82316</v>
+        <v>36459.41246</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>51015.71027</v>
+        <v>47462.59885</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>84239.92092</v>
+        <v>73514.22688999999</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>48350.73995999999</v>
+        <v>39942.64331</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>67283.54075999999</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>40214.7975</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>46196.945</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
-        <v>1065.39528</v>
+        <v>1065.1233</v>
       </c>
       <c r="D49" s="48" t="n">
         <v>2349.26379</v>
@@ -2678,124 +2804,139 @@
         <v>4220.9618</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>706.24445</v>
+        <v>27523.7752</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>1982.9393</v>
+        <v>28802.46853</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>5871.68957</v>
+        <v>5839.332969999999</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>8870.847750000001</v>
+        <v>8106.72118</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>558.28903</v>
+        <v>557.79129</v>
       </c>
       <c r="L49" s="48" t="n">
         <v>4262.074979999999</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>1777.80483</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>1651.5131</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>1112.565</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>16860.99697</v>
+        <v>15296.35002</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>30468.88951</v>
+        <v>27710.02045</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>33661.21946</v>
+        <v>31571.81305</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>23654.1373</v>
+        <v>21438.94553</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>24715.23448</v>
+        <v>23880.72898</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>47157.2374</v>
+        <v>29106.53102</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>38947.13359</v>
+        <v>30620.07949</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>42144.86252000001</v>
+        <v>39355.87767</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>83681.63189</v>
+        <v>72956.4356</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>44088.66497999999</v>
+        <v>35680.56833000001</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>65505.73593</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>38563.2844</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>45084.38</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>117733.44613</v>
+        <v>117373.15532</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>28734.65615</v>
+        <v>28665.34804</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>117040.65146</v>
+        <v>112478.65511</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>25655.13519</v>
+        <v>22969.55159</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>55127.85932</v>
+        <v>43339.89923</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>58174.71289999999</v>
+        <v>53930.84441</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>36038.97906999999</v>
+        <v>29244.23575</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>64964.77436</v>
+        <v>60069.06622</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>64164.20097</v>
+        <v>55201.47059999999</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>84987.80589</v>
+        <v>52908.02175</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>105136.58345</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>48444.76532999999</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>53664.76</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>0</v>
       </c>
       <c r="D52" s="48" t="n">
-        <v>30.89144</v>
+        <v>29.74695</v>
       </c>
       <c r="E52" s="48" t="n">
-        <v>2501.33908</v>
+        <v>0</v>
       </c>
       <c r="F52" s="48" t="n">
-        <v>2712.16371</v>
+        <v>469.96419</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>5298.30709</v>
+        <v>1084.42112</v>
       </c>
       <c r="H52" s="48" t="n">
         <v>111.56748</v>
@@ -2804,214 +2945,242 @@
         <v>3862.16627</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>1561.62084</v>
+        <v>1474.39699</v>
       </c>
       <c r="K52" s="48" t="n">
-        <v>1725.17465</v>
+        <v>1374.79702</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>2979.82251</v>
+        <v>0</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>3314.23092</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>2678.59931</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>7871.824</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>47492.16268</v>
+        <v>47162.31836</v>
       </c>
       <c r="D53" s="48" t="n">
         <v>6491.687660000001</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>1960.15939</v>
+        <v>1957.56701</v>
       </c>
       <c r="F53" s="48" t="n">
         <v>1583.42878</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>4496.424389999999</v>
+        <v>4487.637900000001</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>11744.10837</v>
+        <v>11753.14372</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>1688.02914</v>
+        <v>1682.7848</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>10653.21956</v>
+        <v>10419.19175</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>2953.15375</v>
+        <v>1201.98684</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>12885.37103</v>
+        <v>12883.16171</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>8759.987230000001</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>8758.77723</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>586.723</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>70241.28344999999</v>
+        <v>70210.83696000002</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>22212.07705</v>
+        <v>22143.91343</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>112579.15299</v>
+        <v>110521.0881</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>21359.5427</v>
+        <v>20916.15862</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>45333.12783999999</v>
+        <v>37767.84021</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>46319.03705000001</v>
+        <v>42066.13321</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>30488.78366</v>
+        <v>23699.28468</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>52749.93396</v>
+        <v>48175.47748</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>59485.87257</v>
+        <v>52624.68674</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>69122.61235</v>
+        <v>40024.86004000001</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>93062.36529999999</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>37007.38879</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>45206.213</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>1201.725470000003</v>
+        <v>-9022.074110000007</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>137965.35097</v>
+        <v>140189.66236</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>117449.72007</v>
+        <v>136652.29906</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>246854.16773</v>
+        <v>273994.82169</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>140409.22384</v>
+        <v>233930.04746</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>-13479.55528</v>
+        <v>-7458.495580000002</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>89300.80839000001</v>
+        <v>44350.97084999999</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>-16068.49879</v>
+        <v>-39650.75293</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>235873.15703</v>
+        <v>217688.27923</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>231336.63911</v>
+        <v>320967.9960800001</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>233332.41006</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>211720.67239</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>592122.064</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>16582.0328</v>
+        <v>14825.23021</v>
       </c>
       <c r="D56" s="47" t="n">
         <v>21263.51681</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>33461.13935</v>
+        <v>33438.73225</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>42973.00596</v>
+        <v>41994.07984000001</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>61417.52007000001</v>
+        <v>61417.52007</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>31430.13446</v>
+        <v>28000.6999</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>37231.63415999999</v>
+        <v>32431.03901</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>35626.9566</v>
+        <v>32567.05639</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>72351.32634999999</v>
+        <v>67401.40064000001</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>81888.46290000001</v>
+        <v>77655.60202999999</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>84067.16430000002</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>65123.05352</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>123328.869</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>-15380.30733000001</v>
+        <v>-23847.30432000001</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>116701.83416</v>
+        <v>118926.14555</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>83988.58072</v>
+        <v>103213.56681</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>203881.16177</v>
+        <v>232000.74185</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>78991.70376999998</v>
+        <v>172512.52739</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>-44909.68973999999</v>
+        <v>-35459.19548</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>52069.17422999999</v>
+        <v>11919.93184</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>-51695.45539</v>
+        <v>-72217.80931999999</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>163521.83068</v>
+        <v>150286.87859</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>149448.17621</v>
+        <v>243312.39405</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>149265.24576</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>146597.61887</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>468793.195</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
+      </c>
+      <c r="C59" s="35" t="n">
+        <v>44</v>
+      </c>
+      <c r="D59" s="35" t="n">
+        <v>56</v>
+      </c>
+      <c r="E59" s="35" t="n">
+        <v>63</v>
+      </c>
+      <c r="F59" s="35" t="n">
+        <v>64</v>
+      </c>
+      <c r="G59" s="35" t="n">
         <v>55</v>
       </c>
-      <c r="C59" s="35" t="n">
-        <v>47</v>
-      </c>
-      <c r="D59" s="35" t="n">
-        <v>60</v>
-      </c>
-      <c r="E59" s="35" t="n">
-        <v>72</v>
-      </c>
-      <c r="F59" s="35" t="n">
-        <v>76</v>
-      </c>
-      <c r="G59" s="35" t="n">
-        <v>64</v>
-      </c>
       <c r="H59" s="35" t="n">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="K59" s="35" t="n">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>26</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>